--- a/docentes/Ángel Martínez Noe Cristobal - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Noe Cristobal - Estadisticos 2020.xlsx
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1104,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Ángel Martínez Noe Cristobal - Estadisticos 2020.xlsx
+++ b/docentes/Ángel Martínez Noe Cristobal - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="20">
   <si>
     <t>Mat</t>
   </si>
@@ -77,24 +77,6 @@
   </si>
   <si>
     <t>Reprobadas</t>
-  </si>
-  <si>
-    <t>GROTH</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>FERRAL</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>VALERIA GUADALUPE</t>
   </si>
 </sst>
 </file>
@@ -498,10 +480,10 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>33</v>
@@ -510,7 +492,7 @@
         <v>89.19</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,10 +506,10 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -536,7 +518,7 @@
         <v>89.19</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -550,7 +532,7 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -576,10 +558,10 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>31</v>
@@ -588,7 +570,7 @@
         <v>86.11</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,10 +584,10 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -614,7 +596,7 @@
         <v>83.33</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -628,10 +610,10 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>24</v>
@@ -640,7 +622,7 @@
         <v>72.73</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -696,16 +678,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>86.48999999999999</v>
+      </c>
+      <c r="H2">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -719,16 +704,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>86.48999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -742,16 +730,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>88.89</v>
+      </c>
+      <c r="H4">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -765,16 +756,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>88.89</v>
+      </c>
+      <c r="H5">
+        <v>8.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -788,16 +782,19 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H6">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -811,16 +808,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>69.7</v>
+      </c>
+      <c r="H7">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -876,19 +876,19 @@
         <v>37</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -902,19 +902,19 @@
         <v>37</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>89.19</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -928,19 +928,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H4">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -954,19 +954,19 @@
         <v>36</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H5">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -980,10 +980,10 @@
         <v>36</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>30</v>
@@ -992,7 +992,7 @@
         <v>83.33</v>
       </c>
       <c r="H6">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1006,19 +1006,19 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>72.73</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H7">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,52 +1061,6 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920298</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
